--- a/ocms/src/test/resources/DownloadedFiles/Holiday List (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Holiday List (1).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
   <si>
     <t xml:space="preserve">Announced Holiday</t>
   </si>
@@ -76,16 +76,10 @@
     <t xml:space="preserve">12:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">40001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/11/2019 17:33:23</t>
-  </si>
-  <si>
     <t xml:space="preserve">40000</t>
   </si>
   <si>
-    <t xml:space="preserve">07/11/2019 17:33:14</t>
+    <t xml:space="preserve">24/10/2019 22:38:55</t>
   </si>
   <si>
     <t xml:space="preserve">Diwali</t>
@@ -112,7 +106,7 @@
     <t xml:space="preserve">23:59:00</t>
   </si>
   <si>
-    <t xml:space="preserve">07/11/2019 17:33:31</t>
+    <t xml:space="preserve">24/10/2019 22:39:10</t>
   </si>
   <si>
     <t xml:space="preserve">Dusshera</t>
@@ -121,7 +115,7 @@
     <t xml:space="preserve">11/10/2020</t>
   </si>
   <si>
-    <t xml:space="preserve">07/11/2019 17:33:39</t>
+    <t xml:space="preserve">24/10/2019 22:39:18</t>
   </si>
   <si>
     <t xml:space="preserve">EmployeeDay</t>
@@ -154,7 +148,7 @@
     <t xml:space="preserve">12/12/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">07/11/2019 17:33:55</t>
+    <t xml:space="preserve">24/10/2019 22:39:32</t>
   </si>
   <si>
     <t xml:space="preserve">NewYear</t>
@@ -255,7 +249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -363,126 +357,126 @@
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -494,111 +488,111 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -610,45 +604,16 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
         <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/DownloadedFiles/Holiday List (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Holiday List (1).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="60">
   <si>
     <t xml:space="preserve">Announced Holiday</t>
   </si>
@@ -70,52 +70,67 @@
     <t xml:space="preserve">04/10/2019 15:45:20</t>
   </si>
   <si>
-    <t xml:space="preserve">Christmas</t>
+    <t xml:space="preserve">Diwali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/10/2019 15:44:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durga Puja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/12/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/12/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:59:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/11/2019 15:44:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dusshera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/12/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/12/2019</t>
   </si>
   <si>
     <t xml:space="preserve">12:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">40000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/10/2019 22:38:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diwali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/10/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/10/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/10/2019 15:44:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durga Puja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/10/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:59:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/10/2019 22:39:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dusshera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/10/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/10/2019 22:39:18</t>
+    <t xml:space="preserve">15/11/2019 15:44:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/11/2019 15:44:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/12/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/12/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/11/2019 15:44:46</t>
   </si>
   <si>
     <t xml:space="preserve">EmployeeDay</t>
@@ -148,7 +163,7 @@
     <t xml:space="preserve">12/12/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">24/10/2019 22:39:32</t>
+    <t xml:space="preserve">15/11/2019 15:45:01</t>
   </si>
   <si>
     <t xml:space="preserve">NewYear</t>
@@ -249,7 +264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -331,152 +346,152 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -488,68 +503,68 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -563,36 +578,36 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -604,16 +619,45 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/DownloadedFiles/Holiday List (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Holiday List (1).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="96">
   <si>
     <t xml:space="preserve">Announced Holiday</t>
   </si>
@@ -46,256 +46,265 @@
     <t xml:space="preserve">Last Changed On</t>
   </si>
   <si>
-    <t xml:space="preserve">Children''s Day </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/11/2019</t>
+    <t xml:space="preserve">Durga Puja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/10/2019</t>
   </si>
   <si>
     <t xml:space="preserve">00:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">30/11/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">425216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bengteth\administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/11/2019 17:21:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chrismus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/10/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/12/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:12:00</t>
+    <t xml:space="preserve">23:59:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indiatetherfi\meghna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/07/2019 13:43:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dusshera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/07/2019 13:43:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/07/2019 13:43:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/07/2019 13:43:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/12/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/12/2020</t>
   </si>
   <si>
     <t xml:space="preserve">50000</t>
   </si>
   <si>
-    <t xml:space="preserve">04/10/2019 15:45:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">College Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/12/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/12/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/11/2019 16:25:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diwali</t>
+    <t xml:space="preserve">27/04/2020 17:13:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/04/2020 17:13:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/12/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/12/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/04/2020 17:13:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/12/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/12/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/04/2020 17:13:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">holiday</t>
   </si>
   <si>
     <t xml:space="preserve">05/10/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">08/10/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/10/2019 15:44:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durga Puja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21/12/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22/12/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:59:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qatetherfi\administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/02/2020 14:36:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dusshera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/12/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/12/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/02/2020 14:36:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/02/2020 14:35:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/12/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17/12/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/02/2020 14:36:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/12/2019</t>
+    <t xml:space="preserve">06/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/07/2019 13:43:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">independence day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/08/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/08/2019 17:19:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Independence day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/08/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/07/2019 11:05:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labours day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/08/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/08/2019 14:38:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/12/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/12/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/04/2020 17:14:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nationalholiday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/08/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/08/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/08/2019 13:00:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/08/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/08/2019 15:14:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/08/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/08/2019 14:12:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/08/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/08/2019 17:21:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:08:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/08/2019 19:20:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/06/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indiatetherfi\administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/06/2019 16:58:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/06/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/06/2019 19:09:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pandemic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/04/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/04/2020 23:35:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/08/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/08/2019 11:05:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/06/2019 19:21:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slaholiday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/08/2019</t>
   </si>
   <si>
     <t xml:space="preserve">00:01:00</t>
   </si>
   <si>
-    <t xml:space="preserve">04/12/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/11/2019 17:51:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EmployeeDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/10/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/10/2019 15:47:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Festival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/12/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/11/2019 17:31:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FriendshipDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/10/2019 15:50:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/01/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/01/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">545465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26/12/2019 14:21:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">holiday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/12/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/12/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/02/2020 14:36:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/12/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/11/2019 16:18:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">School Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/12/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/12/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/11/2019 16:24:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ugadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/10/2019 15:49:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WomensDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/10/2019 15:48:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoga Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/11/2019 11:13:57</t>
+    <t xml:space="preserve">11:42:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/08/2019 10:32:59</t>
   </si>
 </sst>
 </file>
@@ -363,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -422,10 +431,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -451,196 +460,196 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
@@ -648,318 +657,463 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>50</v>
       </c>
-      <c r="E12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
+    </row>
+    <row r="25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>91</v>
       </c>
-      <c r="G20" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="B25" t="s">
         <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/DownloadedFiles/Holiday List (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Holiday List (1).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="125">
   <si>
     <t xml:space="preserve">Announced Holiday</t>
   </si>
@@ -127,10 +127,10 @@
     <t xml:space="preserve">50101</t>
   </si>
   <si>
-    <t xml:space="preserve">QATETHERFI\Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/08/2021 00:19:42</t>
+    <t xml:space="preserve">qatetherfi\administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/08/2021 17:16:53</t>
   </si>
   <si>
     <t xml:space="preserve">Dusshera</t>
@@ -178,9 +178,6 @@
     <t xml:space="preserve">6888</t>
   </si>
   <si>
-    <t xml:space="preserve">qatetherfi\administrator</t>
-  </si>
-  <si>
     <t xml:space="preserve">02/09/2020 18:59:01</t>
   </si>
   <si>
@@ -265,7 +262,7 @@
     <t xml:space="preserve">19/12/2021</t>
   </si>
   <si>
-    <t xml:space="preserve">02/08/2021 00:20:20</t>
+    <t xml:space="preserve">10/08/2021 17:17:28</t>
   </si>
   <si>
     <t xml:space="preserve">Holiday</t>
@@ -289,34 +286,34 @@
     <t xml:space="preserve">10/12/2021</t>
   </si>
   <si>
-    <t xml:space="preserve">02/08/2021 00:20:07</t>
+    <t xml:space="preserve">10/08/2021 17:17:17</t>
   </si>
   <si>
     <t xml:space="preserve">Makar Sankranti</t>
   </si>
   <si>
+    <t xml:space="preserve">30/12/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/12/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/08/2021 17:16:30</t>
+  </si>
+  <si>
     <t xml:space="preserve">16/12/2021</t>
   </si>
   <si>
     <t xml:space="preserve">17/12/2021</t>
   </si>
   <si>
-    <t xml:space="preserve">02/08/2021 00:19:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/12/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/12/2021</t>
+    <t xml:space="preserve">10/08/2021 17:17:05</t>
   </si>
   <si>
     <t xml:space="preserve">50103</t>
   </si>
   <si>
-    <t xml:space="preserve">02/08/2021 00:19:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/08/2021 00:19:17</t>
+    <t xml:space="preserve">10/08/2021 17:16:42</t>
   </si>
   <si>
     <t xml:space="preserve">Nature Day</t>
@@ -765,10 +762,10 @@
         <v>52</v>
       </c>
       <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
@@ -776,13 +773,13 @@
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="E11" t="s">
         <v>47</v>
@@ -794,18 +791,18 @@
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -817,79 +814,79 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="G12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
       <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" t="s">
         <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
         <v>68</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="G14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
@@ -904,59 +901,59 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="G15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
       </c>
       <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="G16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -971,21 +968,21 @@
         <v>36</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
@@ -997,24 +994,24 @@
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
@@ -1026,24 +1023,24 @@
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
         <v>47</v>
@@ -1058,24 +1055,24 @@
         <v>36</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
@@ -1087,70 +1084,70 @@
         <v>36</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
         <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>41</v>
@@ -1159,114 +1156,114 @@
         <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
         <v>101</v>
       </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="G24" t="s">
-        <v>102</v>
-      </c>
-      <c r="H24" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
       </c>
       <c r="F25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G25" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
         <v>109</v>
       </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="G26" t="s">
-        <v>110</v>
-      </c>
-      <c r="H26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
         <v>30</v>
       </c>
       <c r="F27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="G27" t="s">
-        <v>114</v>
-      </c>
-      <c r="H27" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
@@ -1281,24 +1278,24 @@
         <v>19</v>
       </c>
       <c r="F28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="G28" t="s">
-        <v>117</v>
-      </c>
-      <c r="H28" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -1310,21 +1307,21 @@
         <v>19</v>
       </c>
       <c r="F29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G29" t="s">
-        <v>121</v>
-      </c>
-      <c r="H29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>10</v>
@@ -1339,16 +1336,16 @@
         <v>11</v>
       </c>
       <c r="F30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="G30" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
